--- a/src/main/resources/myownspreadsheetCopy.xlsx
+++ b/src/main/resources/myownspreadsheetCopy.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="2138">
   <si>
     <t>A Item</t>
   </si>
@@ -6080,15 +6080,29 @@
     <r>
       <rPr>
         <b val="true"/>
-        <color indexed="53"/>
+        <color indexed="17"/>
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>NS</t>
-    </r>
-  </si>
-  <si>
-    <t>NA</t>
+      <t>65.38</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp entocort caps 3mg (100)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>65.38</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp entocort caps 3mg 100</t>
   </si>
   <si>
     <r>
@@ -6126,11 +6140,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.24</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 2mg tablets 7</t>
+      <t>7.80</t>
+    </r>
+  </si>
+  <si>
+    <t>tamsulosin mr tab 400mcg [tri] (30)</t>
   </si>
   <si>
     <r>
@@ -6140,11 +6154,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.22</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 2mg tablets  7</t>
+      <t>13.23</t>
+    </r>
+  </si>
+  <si>
+    <t>tamsulosin mr tab 400mcg [aah] 30</t>
   </si>
   <si>
     <r>
@@ -6154,11 +6168,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.25</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan tab 2mg [tri] (7)</t>
+      <t>0.24</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 2mg tablets 7</t>
   </si>
   <si>
     <r>
@@ -6168,11 +6182,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.49</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 4mg tablets 28</t>
+      <t>0.22</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 2mg tablets  7</t>
   </si>
   <si>
     <r>
@@ -6182,11 +6196,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.48</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 4mg tablets  28</t>
+      <t>0.25</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 2mg [tri] (7)</t>
   </si>
   <si>
     <r>
@@ -6196,11 +6210,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.47</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 8mg tablets 28</t>
+      <t>0.81</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 2mg [aah] 7</t>
   </si>
   <si>
     <r>
@@ -6210,11 +6224,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.46</t>
-    </r>
-  </si>
-  <si>
-    <t>candesartan 8mg tablets  28</t>
+      <t>0.49</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 4mg tablets 28</t>
   </si>
   <si>
     <r>
@@ -6224,6 +6238,104 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
+      <t>0.48</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 4mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.56</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 4mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.07</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 4mg [teva] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.47</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 8mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.46</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan 8mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.54</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 8mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.03</t>
+    </r>
+  </si>
+  <si>
+    <t>candesartan tab 8mg [teva] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>0.39</t>
     </r>
   </si>
@@ -6247,7 +6359,7 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.77</t>
+      <t xml:space="preserve"> 5.77</t>
     </r>
   </si>
   <si>
@@ -6262,11 +6374,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>43.95</t>
-    </r>
-  </si>
-  <si>
-    <t>memantine 10mg/ml oral solution sf 50ml</t>
+      <t>0.40</t>
+    </r>
+  </si>
+  <si>
+    <t>rosuvastatin tab 5mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="53"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NS</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <r>
@@ -6276,11 +6402,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.10</t>
-    </r>
-  </si>
-  <si>
-    <t>memantine hcl 10mg f/c tablets 28</t>
+      <t>43.95</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine 10mg/ml oral solution sf 50ml</t>
   </si>
   <si>
     <r>
@@ -6290,8 +6416,27 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.61</t>
-    </r>
+      <t>40.00</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine oral soln 10mg/ml s/f [tri] (50ml)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>78.75</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine oral soln 10mg/ml s/f [aah] 50ml</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -6299,14 +6444,22 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>23.34</t>
-    </r>
-  </si>
-  <si>
-    <t>memantine 10mg tablets #  28
-memantine odt 10mg tabs  28</t>
-  </si>
-  <si>
+      <t>1.10</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine hcl 10mg f/c tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.61</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6314,11 +6467,12 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.84</t>
-    </r>
-  </si>
-  <si>
-    <t>escitalopram 20mg tablets 28</t>
+      <t xml:space="preserve"> 23.34</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine 10mg tablets #  28
+memantine odt 10mg tabs  28</t>
   </si>
   <si>
     <r>
@@ -6328,11 +6482,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.86</t>
-    </r>
-  </si>
-  <si>
-    <t>escitalopram 20mg tablets ** double check  28</t>
+      <t>0.99</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine tab 10mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6342,11 +6496,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.89</t>
-    </r>
-  </si>
-  <si>
-    <t>esomeprazole 20mg capsules 28</t>
+      <t>1.11</t>
+    </r>
+  </si>
+  <si>
+    <t>memantine tab 10mg [aah] 28</t>
   </si>
   <si>
     <r>
@@ -6356,11 +6510,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.97</t>
-    </r>
-  </si>
-  <si>
-    <t>esomeprazole 20mg caps ** double check  28</t>
+      <t>0.84</t>
+    </r>
+  </si>
+  <si>
+    <t>escitalopram 20mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
+  </si>
+  <si>
+    <t>escitalopram 20mg tablets ** double check  28</t>
   </si>
   <si>
     <r>
@@ -6370,11 +6538,67 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.85</t>
-    </r>
-  </si>
-  <si>
-    <t>co-codamol 30mg/500mg capsules 100</t>
+      <t>0.78</t>
+    </r>
+  </si>
+  <si>
+    <t>escitalopram tab 20mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.26</t>
+    </r>
+  </si>
+  <si>
+    <t>escitalopram tab 20mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.89</t>
+    </r>
+  </si>
+  <si>
+    <t>esomeprazole 20mg capsules 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.97</t>
+    </r>
+  </si>
+  <si>
+    <t>esomeprazole 20mg caps ** double check  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.96</t>
+    </r>
+  </si>
+  <si>
+    <t>esomeprazole cap 20mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6384,11 +6608,67 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
+      <t>1.72</t>
+    </r>
+  </si>
+  <si>
+    <t>esomeprazole cap 20mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.85</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol 30mg/500mg capsules 100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>3.84</t>
     </r>
   </si>
   <si>
     <t>zapain 30/500mg capsules mx50 co-codamol 30/500 caps mercury  100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6.35</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol capsule 30/500mg [tri] (100)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>8.25</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol capsule 30/500 [aah] 100</t>
   </si>
   <si>
     <r>
@@ -6405,6 +6685,12 @@
     <t>alfuzosin 2.5mg tablets 60</t>
   </si>
   <si>
+    <t>alfuzosin 2.5mg tablets  60</t>
+  </si>
+  <si>
+    <t>alfuzosin tab 2.5mg [tri] (60)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -6412,14 +6698,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.81</t>
-    </r>
-  </si>
-  <si>
-    <t>alfuzosin 2.5mg tablets  60</t>
-  </si>
-  <si>
-    <t>alfuzosin tab 2.5mg [tri] (60)</t>
+      <t>1.24</t>
+    </r>
+  </si>
+  <si>
+    <t>alfuzosin tab 2.5mg [aps/teva] 60</t>
   </si>
   <si>
     <r>
@@ -6429,11 +6712,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.83</t>
-    </r>
-  </si>
-  <si>
-    <t>alfuzosin tab 2.5mg [aah] 60</t>
+      <t>7.37</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol 30mg/500mg effervescent tablets 100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>7.37</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol eff 30/500mg tabs  100</t>
   </si>
   <si>
     <r>
@@ -6443,11 +6740,168 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>7.37</t>
-    </r>
-  </si>
-  <si>
-    <t>co-codamol 30mg/500mg effervescent tablets 100</t>
+      <t>7.08</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol eff tab 30/500mg [tri] (100)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>11.03</t>
+    </r>
+  </si>
+  <si>
+    <t>co-codamol eff tab 30/500mg [aah] 100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.96</t>
+    </r>
+  </si>
+  <si>
+    <t>ketoprofen 2.5% gel 100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.91</t>
+    </r>
+  </si>
+  <si>
+    <t>ketoprof gel 2.5% w/w bp  100gm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.34</t>
+    </r>
+  </si>
+  <si>
+    <t>ketoprofen gel 2.5% [tri] (100gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.20</t>
+    </r>
+  </si>
+  <si>
+    <t>ketoprofen gel 2.5% [aah] 100gm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>54.10</t>
+    </r>
+  </si>
+  <si>
+    <t>nifedipine 10mg capsules 90</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>58.82</t>
+    </r>
+  </si>
+  <si>
+    <t>nifedipine 10mg capsules  90</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>54.59</t>
+    </r>
+  </si>
+  <si>
+    <t>nifedipine soft gel cap 10mg [tri] (90)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>91.88</t>
+    </r>
+  </si>
+  <si>
+    <t>nifedipine soft gel cap 10mg [aah] 90</t>
+  </si>
+  <si>
+    <t>thiamine (vit b1) 100mg tablets 100unlic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.08</t>
+    </r>
+  </si>
+  <si>
+    <t>thiamine 100mg tabs no pl  100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.19</t>
+    </r>
+  </si>
+  <si>
+    <t>thiamine tab 100mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6457,13 +6911,8 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>7.37</t>
-    </r>
-  </si>
-  <si>
-    <t>co-codamol eff 30/500mg tabs  100</t>
-  </si>
-  <si>
+      <t>1.47</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6471,13 +6920,65 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.96</t>
-    </r>
-  </si>
-  <si>
-    <t>ketoprofen 2.5% gel 100g</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> 1.51</t>
+    </r>
+  </si>
+  <si>
+    <t>athiam 100mg thiamine tablets [u/l] 28
+thiamine tab 100mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.80</t>
+    </r>
+  </si>
+  <si>
+    <t>tobradex eye drops 5ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.10</t>
+    </r>
+  </si>
+  <si>
+    <t>tobradex eye drops p.i-# dexamethasone tobramycin 5.0% 5ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.72</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp tobradex eye drops (5ml)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.98</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6485,11 +6986,12 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.91</t>
-    </r>
-  </si>
-  <si>
-    <t>ketoprof gel 2.5% w/w bp  100gm</t>
+      <t xml:space="preserve"> 5.37</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp tobradex eye drops 5ml
+tobradex eye drops 5ml</t>
   </si>
   <si>
     <r>
@@ -6499,11 +7001,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>54.10</t>
-    </r>
-  </si>
-  <si>
-    <t>nifedipine 10mg capsules 90</t>
+      <t>1.34</t>
+    </r>
+  </si>
+  <si>
+    <t>colchicine 500mcg tablets 100</t>
   </si>
   <si>
     <r>
@@ -6513,14 +7015,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>58.82</t>
-    </r>
-  </si>
-  <si>
-    <t>nifedipine 10mg capsules  90</t>
-  </si>
-  <si>
-    <t>thiamine (vit b1) 100mg tablets 100unlic</t>
+      <t>1.35</t>
+    </r>
+  </si>
+  <si>
+    <t>colchicine 500mcg tablets  100</t>
   </si>
   <si>
     <r>
@@ -6530,11 +7029,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.08</t>
-    </r>
-  </si>
-  <si>
-    <t>thiamine 100mg tabs no pl  100</t>
+      <t>1.44</t>
+    </r>
+  </si>
+  <si>
+    <t>colchicine tab 500mcg [tri] (100)</t>
   </si>
   <si>
     <r>
@@ -6544,11 +7043,39 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.80</t>
-    </r>
-  </si>
-  <si>
-    <t>tobradex eye drops 5ml</t>
+      <t>2.27</t>
+    </r>
+  </si>
+  <si>
+    <t>colchicine tab 500mcg [aah] 100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6.94</t>
+    </r>
+  </si>
+  <si>
+    <t>mepore dressing 9cmx20cm 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>10.10</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp mepore s/a dressing 9x25cm 671200 (30)</t>
   </si>
   <si>
     <r>
@@ -6558,11 +7085,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.10</t>
-    </r>
-  </si>
-  <si>
-    <t>tobradex eye drops p.i-# dexamethasone tobramycin 5.0% 5ml</t>
+      <t>19.50</t>
+    </r>
+  </si>
+  <si>
+    <t>mepore s/a dressing 9x25cm 671200 30</t>
   </si>
   <si>
     <r>
@@ -6572,11 +7099,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.34</t>
-    </r>
-  </si>
-  <si>
-    <t>colchicine 500mcg tablets 100</t>
+      <t>4.27</t>
+    </r>
+  </si>
+  <si>
+    <t>bd microfine +pen need 31g 5mm 100</t>
   </si>
   <si>
     <r>
@@ -6586,11 +7113,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.35</t>
-    </r>
-  </si>
-  <si>
-    <t>colchicine 500mcg tablets  100</t>
+      <t>4.19</t>
+    </r>
+  </si>
+  <si>
+    <t>bd pen needles 5mm x 31g # 0.25mm 31g 16.0% pk/100</t>
   </si>
   <si>
     <r>
@@ -6600,13 +7127,22 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>6.94</t>
-    </r>
-  </si>
-  <si>
-    <t>mepore dressing 9cmx20cm 30</t>
-  </si>
-  <si>
+      <t>4.40</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp bd pen needles 31g 5mm (100)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.69</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6614,11 +7150,26 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.27</t>
-    </r>
-  </si>
-  <si>
-    <t>bd microfine +pen need 31g 5mm 100</t>
+      <t xml:space="preserve"> 25.00</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp bd pen needles 31g 5mm 100
+bd autoshld duo pen needl 30gx5mm 329605 100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>24.97</t>
+    </r>
+  </si>
+  <si>
+    <t>octasa 400mg modified release tablets 120(uk)</t>
   </si>
   <si>
     <r>
@@ -6628,11 +7179,39 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.19</t>
-    </r>
-  </si>
-  <si>
-    <t>bd pen needles 5mm x 31g # 0.25mm 31g 16.0% pk/100</t>
+      <t>26.00</t>
+    </r>
+  </si>
+  <si>
+    <t>octasa tabs 400mg mr u.k# mesalazine  pk/120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>25.99</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp octasa mr tab 400mg (120)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>24.44</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp octasa mr tab 400mg 120</t>
   </si>
   <si>
     <r>
@@ -6642,11 +7221,168 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.40</t>
-    </r>
-  </si>
-  <si>
-    <t>ppp bd pen needles 31g 5mm (100)</t>
+      <t>1.51</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 6.25mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.23</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 6.25mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.20</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol tab 6.25mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.83</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol tab 6.25mg [aps/teva] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.57</t>
+    </r>
+  </si>
+  <si>
+    <t>lansoprazole 15mg orodisperible tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.62</t>
+    </r>
+  </si>
+  <si>
+    <t>lansoprazo disp 15mg tablets #  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.65</t>
+    </r>
+  </si>
+  <si>
+    <t>lansoprazole odt 15mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.25</t>
+    </r>
+  </si>
+  <si>
+    <t>lansoprazole odt 15mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.31</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 12.5mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.16</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 12.5mg tablets  28</t>
+  </si>
+  <si>
+    <t>carvedilol tab 12.5mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.37</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol tab 12.5mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.35</t>
+    </r>
+  </si>
+  <si>
+    <t>hydrocort 1% cream 'pom'  30gm</t>
   </si>
   <si>
     <r>
@@ -6656,11 +7392,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>24.97</t>
-    </r>
-  </si>
-  <si>
-    <t>octasa 400mg modified release tablets 120(uk)</t>
+      <t>3.25</t>
+    </r>
+  </si>
+  <si>
+    <t>hydrocortisone cream 1% [tri] (30gm)</t>
   </si>
   <si>
     <r>
@@ -6670,13 +7406,22 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>26.00</t>
-    </r>
-  </si>
-  <si>
-    <t>octasa tabs 400mg mr u.k# mesalazine  pk/120</t>
-  </si>
-  <si>
+      <t>1.30</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 25mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.93</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6684,13 +7429,29 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.51</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 6.25mg tablets 28</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> 1.13</t>
+    </r>
+  </si>
+  <si>
+    <t>carvedilol 25mg tablets  28
+carvedilol 25mg tabs teva  28</t>
+  </si>
+  <si>
+    <t>carvedilol tab 25mg [tri] (28)</t>
+  </si>
+  <si>
+    <t>carvedilol tab 25mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.86</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6698,11 +7459,12 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.23</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 6.25mg tablets  28</t>
+      <t xml:space="preserve"> 2.49</t>
+    </r>
+  </si>
+  <si>
+    <t>hydrocortisone 1% cream (otc) 15g
+hydrocortisone 1% cream 15g</t>
   </si>
   <si>
     <r>
@@ -6712,11 +7474,39 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.57</t>
-    </r>
-  </si>
-  <si>
-    <t>lansoprazole 15mg orodisperible tablets 28</t>
+      <t>2.42</t>
+    </r>
+  </si>
+  <si>
+    <t>hydrocortisone 1% cream  15g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.45</t>
+    </r>
+  </si>
+  <si>
+    <t>hydrocortisone cream 1% [tri] (15gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.55</t>
+    </r>
+  </si>
+  <si>
+    <t>hc 45 hydrocortisone 1% 15gm</t>
   </si>
   <si>
     <r>
@@ -6726,13 +7516,50 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.62</t>
-    </r>
-  </si>
-  <si>
-    <t>lansoprazo disp 15mg tablets #  28</t>
-  </si>
-  <si>
+      <t>3.80</t>
+    </r>
+  </si>
+  <si>
+    <t>dorzolamide 20mg/ml eye drops 5ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6.29</t>
+    </r>
+  </si>
+  <si>
+    <t>dorzolami eye drop 2% sol ** d/check item  5ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.00</t>
+    </r>
+  </si>
+  <si>
+    <t>dorzolamide 2% timolol 0.5% eye drop[tri (1x5ml)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.05</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6740,11 +7567,68 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.31</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 12.5mg tablets 28</t>
+      <t xml:space="preserve"> 14.25</t>
+    </r>
+  </si>
+  <si>
+    <t>dorzolamide 2% timolol 0.5% eyedrop[acc] 1x5ml
+dorzolamide 2% timolol 0.5% eye drop[aah 1x5ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.12</t>
+    </r>
+  </si>
+  <si>
+    <t>cefalexin 500mg capsules 21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.62</t>
+    </r>
+  </si>
+  <si>
+    <t>keflex 500mg caps cefalex  21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.15</t>
+    </r>
+  </si>
+  <si>
+    <t>cefalexin cap 500mg [tri] (21)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.27</t>
+    </r>
+  </si>
+  <si>
+    <t>cefalexin cap 500mg [aah] 21</t>
   </si>
   <si>
     <r>
@@ -6754,11 +7638,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.16</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 12.5mg tablets  28</t>
+      <t>13.10</t>
+    </r>
+  </si>
+  <si>
+    <t>hydroxocobalamin 1mg/1ml solution for injection 5</t>
   </si>
   <si>
     <r>
@@ -6768,11 +7652,67 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>3.35</t>
-    </r>
-  </si>
-  <si>
-    <t>hydrocort 1% cream 'pom'  30gm</t>
+      <t>11.75</t>
+    </r>
+  </si>
+  <si>
+    <t>hydroxocobalamin inj 1mg/1ml [tri] (5)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.20</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate 0.1% cream 30g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.39</t>
+    </r>
+  </si>
+  <si>
+    <t>betameth val cream 0.1% max5  30g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.90</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate cream 0.1% [tri] (30gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.50</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone val crm 0.1% w/w [aah] 30gm</t>
   </si>
   <si>
     <r>
@@ -6782,11 +7722,42 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.30</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 25mg tablets 28</t>
+      <t>0.75</t>
+    </r>
+  </si>
+  <si>
+    <t>olmesartan 10mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+  </si>
+  <si>
+    <t>olmesartan 10mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.85</t>
+    </r>
+  </si>
+  <si>
+    <t>olmesartan medoxomil tab 10mg [tri] (28)</t>
+  </si>
+  <si>
+    <t>olmesartan medoxomil tab 10mg [aah] 28</t>
   </si>
   <si>
     <r>
@@ -6796,8 +7767,128 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.93</t>
-    </r>
+      <t>5.40</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate 0.1% cream 100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>7.09</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone val cream 0.1%  100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.99</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate cream 0.1% [tri] (100gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.97</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone val crm 0.1% w/w [aah] 100gm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.03</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate 0.1% ointment 100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.27</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethason val oint 0.1%  100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.44</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone valerate oint 0.1% [tri] (100gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.90</t>
+    </r>
+  </si>
+  <si>
+    <t>betamethasone val oint 0.1% w/w [aah] 100gm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.35</t>
+    </r>
+  </si>
+  <si>
+    <t>amoxicillin 250mg/5ml oral suspension sf 100ml</t>
+  </si>
+  <si>
+    <t>amoxicillin 250mg/5ml sf  100ml</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -6805,12 +7896,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.13</t>
-    </r>
-  </si>
-  <si>
-    <t>carvedilol 25mg tablets  28
-carvedilol 25mg tabs teva  28</t>
+      <t>1.38</t>
+    </r>
+  </si>
+  <si>
+    <t>amoxicillin susp 250mg/5ml s/f [tri]* (100ml)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.67</t>
+    </r>
+  </si>
+  <si>
+    <t>amoxicillin susp 250mg s/f [aah/rinn] 100ml</t>
   </si>
   <si>
     <r>
@@ -6820,8 +7924,13 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.86</t>
-    </r>
+      <t>4.52</t>
+    </r>
+  </si>
+  <si>
+    <t>celluvisc 0.5% eye drops 0.4ml 30doses (uk)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -6829,12 +7938,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.49</t>
-    </r>
-  </si>
-  <si>
-    <t>hydrocortisone 1% cream (otc) 15g
-hydrocortisone 1% cream 15g</t>
+      <t>4.39</t>
+    </r>
+  </si>
+  <si>
+    <t>celluvisc dry eye pr 0.5% u.k# carmellose sodium 8.5% 30 x 0.4ml</t>
   </si>
   <si>
     <r>
@@ -6844,13 +7952,22 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.42</t>
-    </r>
-  </si>
-  <si>
-    <t>hydrocortisone 1% cream  15g</t>
-  </si>
-  <si>
+      <t>4.41</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp celluvisc 0.5% 0.4ml (30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.41</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -6858,11 +7975,166 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>3.80</t>
-    </r>
-  </si>
-  <si>
-    <t>dorzolamide 20mg/ml eye drops 5ml</t>
+      <t xml:space="preserve"> 4.80</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp celluvisc 0.5% 0.4ml 30
+celluvisc 0.5% 30 x 0.4ml 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.73</t>
+    </r>
+  </si>
+  <si>
+    <t>hydroxyzine 25mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.65</t>
+    </r>
+  </si>
+  <si>
+    <t>hydroxyzine 25mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.70</t>
+    </r>
+  </si>
+  <si>
+    <t>hydroxyzine tab 25mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.65</t>
+    </r>
+  </si>
+  <si>
+    <t>flucloxacillin 500mg capsules 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.59</t>
+    </r>
+  </si>
+  <si>
+    <t>fluclox 500mg capsules  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.01</t>
+    </r>
+  </si>
+  <si>
+    <t>flucloxacillin cap 500mg [tri]* (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.45</t>
+    </r>
+  </si>
+  <si>
+    <t>flucloxacillin cap 500mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.94</t>
+    </r>
+  </si>
+  <si>
+    <t>doxycycline 100mg capsules 50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.99</t>
+    </r>
+  </si>
+  <si>
+    <t>doxycycline 100mg capsules  50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.31</t>
+    </r>
+  </si>
+  <si>
+    <t>doxycycline cap 100mg [tri] (50)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6.44</t>
+    </r>
+  </si>
+  <si>
+    <t>doxycycline cap 100mg [aah/hx] 50</t>
   </si>
   <si>
     <r>
@@ -6872,11 +8144,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>6.29</t>
-    </r>
-  </si>
-  <si>
-    <t>dorzolami eye drop 2% sol ** d/check item  5ml</t>
+      <t>2.37</t>
+    </r>
+  </si>
+  <si>
+    <t>flucloxacillin 250mg/5ml solution 100ml</t>
   </si>
   <si>
     <r>
@@ -6886,11 +8158,70 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.12</t>
-    </r>
-  </si>
-  <si>
-    <t>cefalexin 500mg capsules 21</t>
+      <t>4.31</t>
+    </r>
+  </si>
+  <si>
+    <t>fluclox 250mg s/f sol actavis * double check * sugar free  100ml</t>
+  </si>
+  <si>
+    <t>flucloxacillin or/soln 250mg/5ml [tri] (100ml)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.38</t>
+    </r>
+  </si>
+  <si>
+    <t>flucloxacillin 250mg/5ml s solut [teva] 100ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>18.50</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol tartrate tablets 25mg 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>29.24</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol 25mg tablets  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>20.63</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol tab 25mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6900,11 +8231,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.62</t>
-    </r>
-  </si>
-  <si>
-    <t>keflex 500mg caps cefalex  21</t>
+      <t>29.54</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol tab 25mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.50</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol 100mg tablets 28</t>
   </si>
   <si>
     <r>
@@ -6914,11 +8259,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>13.10</t>
-    </r>
-  </si>
-  <si>
-    <t>hydroxocobalamin 1mg/1ml solution for injection 5</t>
+      <t>18.72</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol 100mg tablets  28</t>
   </si>
   <si>
     <r>
@@ -6928,11 +8273,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>2.20</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate 0.1% cream 30g</t>
+      <t>1.63</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol tab 100mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6942,11 +8287,94 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.39</t>
-    </r>
-  </si>
-  <si>
-    <t>betameth val cream 0.1% max5  30g</t>
+      <t>2.24</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 2.75</t>
+    </r>
+  </si>
+  <si>
+    <t>metoprolol tab 100mg [aah] 28
+metoprolol tab 100mg [accord] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.64</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen forte 10% gel 100g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.71</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen gel phorpain 10%  100gm</t>
+  </si>
+  <si>
+    <t>ibuprofen gel 10%[tri] (100gm)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>8.10</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen gel 10% [aah] 100gm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>20.98</t>
+    </r>
+  </si>
+  <si>
+    <t>prucalopride 2mg film-coated tablets 28's</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>20.12</t>
+    </r>
+  </si>
+  <si>
+    <t>prucalopride 2mg tablets  28</t>
   </si>
   <si>
     <r>
@@ -6956,11 +8384,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.90</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate cream 0.1% [tri] (30gm)</t>
+      <t>21.78</t>
+    </r>
+  </si>
+  <si>
+    <t>prucalopride tab 2mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -6970,14 +8398,25 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.75</t>
-    </r>
-  </si>
-  <si>
-    <t>olmesartan 10mg tablets 28</t>
-  </si>
-  <si>
-    <t>olmesartan 10mg tablets  28</t>
+      <t>32.12</t>
+    </r>
+  </si>
+  <si>
+    <t>prucalopride tab 2mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>9.39</t>
+    </r>
+  </si>
+  <si>
+    <t>duloxetine 20mg capsules  28</t>
   </si>
   <si>
     <r>
@@ -6987,11 +8426,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.40</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate 0.1% cream 100g</t>
+      <t>7.65</t>
+    </r>
+  </si>
+  <si>
+    <t>duloxetine gr cap 20mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -7001,11 +8440,136 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>7.09</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone val cream 0.1%  100g</t>
+      <t>5.50</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 13.23</t>
+    </r>
+  </si>
+  <si>
+    <t>duloxetine gr cap 20mg [accord] 28
+duloxetine gr cap 20mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>8.86</t>
+    </r>
+  </si>
+  <si>
+    <t>fluoxetine 10mg capsules 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>8.95</t>
+    </r>
+  </si>
+  <si>
+    <t>fluoxetin 10mg capsules  30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>11.54</t>
+    </r>
+  </si>
+  <si>
+    <t>fluoxetine cap 10mg [tri] (30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>16.63</t>
+    </r>
+  </si>
+  <si>
+    <t>fluoxetine capsules 10mg [aah] 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.90</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen 400mg tablets 84</t>
+  </si>
+  <si>
+    <t>ibuprofen 400mg tablets 'p'  84</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.09</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen tab 400mg [tri] (84)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.80</t>
+    </r>
+  </si>
+  <si>
+    <t>ibuprofen tab 400mg [accord] 84</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.15</t>
+    </r>
+  </si>
+  <si>
+    <t>quetiapine 25mg tablets 60</t>
   </si>
   <si>
     <r>
@@ -7015,11 +8579,54 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>3.99</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate cream 0.1% [tri] (100gm)</t>
+      <t>0.98</t>
+    </r>
+  </si>
+  <si>
+    <t>quetiapine 25mg tablets  60</t>
+  </si>
+  <si>
+    <t>quetiapine tab 25mg [tri] (60)</t>
+  </si>
+  <si>
+    <t>quetiapine tab 25mg [aah] 60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.40</t>
+    </r>
+  </si>
+  <si>
+    <t>quetiapine 100mg tablets 60</t>
+  </si>
+  <si>
+    <t>quetiapine 100mg tablets  60</t>
+  </si>
+  <si>
+    <t>quetiapine tab 100mg [tri] (60)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.19</t>
+    </r>
+  </si>
+  <si>
+    <t>quetiapine tab 100mg [teva] 60</t>
+  </si>
+  <si>
+    <t>lipitor 40mg tablets 28(uk)</t>
   </si>
   <si>
     <r>
@@ -7029,11 +8636,67 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.03</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate 0.1% ointment 100g</t>
+      <t>1.54</t>
+    </r>
+  </si>
+  <si>
+    <t>lipitor tabs 40mg u.k-# atorvastatin 93.8% pk/28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.37</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp lipitor tabs 40mg (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>24.63</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp lipitor tabs 40mg 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6.28</t>
+    </r>
+  </si>
+  <si>
+    <t>cinacalcet 30mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>8.19</t>
+    </r>
+  </si>
+  <si>
+    <t>cinacalcet 30mg tablets  28</t>
   </si>
   <si>
     <r>
@@ -7043,11 +8706,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>5.27</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethason val oint 0.1%  100g</t>
+      <t>6.99</t>
+    </r>
+  </si>
+  <si>
+    <t>cinacalcet tab 30mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -7057,11 +8720,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>3.44</t>
-    </r>
-  </si>
-  <si>
-    <t>betamethasone valerate oint 0.1% [tri] (100gm)</t>
+      <t>7.77</t>
+    </r>
+  </si>
+  <si>
+    <t>cinacalcet tab 30mg [accord] 28</t>
   </si>
   <si>
     <r>
@@ -7071,14 +8734,180 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.35</t>
-    </r>
-  </si>
-  <si>
-    <t>amoxicillin 250mg/5ml oral suspension sf 100ml</t>
-  </si>
-  <si>
-    <t>amoxicillin 250mg/5ml sf  100ml</t>
+      <t>1.30</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine 15mg oral disptablets 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.62</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapi odisp 15mg tab #  30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.33</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine disp tab 15mg [tri] (30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.01</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine disp tab 15mg [aah] 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.82</t>
+    </r>
+  </si>
+  <si>
+    <t>quinine sulphate 300mg tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.99</t>
+    </r>
+  </si>
+  <si>
+    <t>quinine sulph 300mg tabs  28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3.00</t>
+    </r>
+  </si>
+  <si>
+    <t>quinine sulphate tab 300mg [tri]* (28)</t>
+  </si>
+  <si>
+    <t>quinine sulphate tab 300mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.43</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine 45mg oral disp tabs 30s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.41</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine orodisp 45mg tabs#  30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.67</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine disp tab 45mg [tri] (30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.42</t>
+    </r>
+  </si>
+  <si>
+    <t>mirtazapine disp tab 45mg [aah] 30</t>
+  </si>
+  <si>
+    <t>paracetamol 500mg capsules 32</t>
+  </si>
+  <si>
+    <t>paracetamol 500mg capsules #  32</t>
+  </si>
+  <si>
+    <t>paracetamol capsule 500mg [tri] (32)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+  </si>
+  <si>
+    <t>aspar paracetamol capsules 500mg 32s</t>
+  </si>
+  <si>
+    <t>irbesartan 300mg tablets 28</t>
   </si>
   <si>
     <r>
@@ -7088,13 +8917,59 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.38</t>
-    </r>
-  </si>
-  <si>
-    <t>amoxicillin susp 250mg/5ml s/f [tri]* (100ml)</t>
-  </si>
-  <si>
+      <t>0.07</t>
+    </r>
+  </si>
+  <si>
+    <t>irbesartan 300mg tab exp 03/24 non returnable  28</t>
+  </si>
+  <si>
+    <t>irbesartan tab 300mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.23</t>
+    </r>
+  </si>
+  <si>
+    <t>irbesartan tab 300mg [aah] 28</t>
+  </si>
+  <si>
+    <t>montelukast 5mg chewable tablets 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1.05</t>
+    </r>
+  </si>
+  <si>
+    <t>montelukast 5mg chew tablets #  28</t>
+  </si>
+  <si>
+    <t>montelukast chewable tab 5mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0.98</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -7102,11 +8977,54 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.37</t>
-    </r>
-  </si>
-  <si>
-    <t>amoxicillin susp 250mg s/f [aah/rinn] 100ml</t>
+      <t xml:space="preserve"> 1.31</t>
+    </r>
+  </si>
+  <si>
+    <t>montelukast chew tab 5mg [accord] 28
+montelukast chewable tab 5mg [aah] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>9.34</t>
+    </r>
+  </si>
+  <si>
+    <t>freestyle lite testing strips 50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>9.35</t>
+    </r>
+  </si>
+  <si>
+    <t>freestyle lite strips p.i-# 43.0% pk/50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.73</t>
+    </r>
+  </si>
+  <si>
+    <t>ppp ketostix new plastic strips (50)</t>
   </si>
   <si>
     <r>
@@ -7116,13 +9034,8 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.52</t>
-    </r>
-  </si>
-  <si>
-    <t>celluvisc 0.5% eye drops 0.4ml 30doses (uk)</t>
-  </si>
-  <si>
+      <t>1.77</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -7130,11 +9043,12 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>4.39</t>
-    </r>
-  </si>
-  <si>
-    <t>celluvisc dry eye pr 0.5% u.k# carmellose sodium 8.5% 30 x 0.4ml</t>
+      <t xml:space="preserve"> 5.95</t>
+    </r>
+  </si>
+  <si>
+    <t>aero plastic standard strip plaster x50 50
+accu-chek instant test strips 50</t>
   </si>
   <si>
     <r>
@@ -7144,11 +9058,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.73</t>
-    </r>
-  </si>
-  <si>
-    <t>hydroxyzine 25mg tablets 28</t>
+      <t>38.00</t>
+    </r>
+  </si>
+  <si>
+    <t>aripiprazole 10mg tablets 28</t>
   </si>
   <si>
     <r>
@@ -7158,11 +9072,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>0.65</t>
-    </r>
-  </si>
-  <si>
-    <t>hydroxyzine 25mg tablets  28</t>
+      <t>16.59</t>
+    </r>
+  </si>
+  <si>
+    <t>aripiprazole 10mg tablets  28</t>
   </si>
   <si>
     <r>
@@ -7172,11 +9086,39 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.65</t>
-    </r>
-  </si>
-  <si>
-    <t>flucloxacillin 500mg capsules 28</t>
+      <t>43.01</t>
+    </r>
+  </si>
+  <si>
+    <t>aripiprazole tab 10mg [tri] (28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>12.05</t>
+    </r>
+  </si>
+  <si>
+    <t>aripiprazole tab 10mg [accord] 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.87</t>
+    </r>
+  </si>
+  <si>
+    <t>ispaghula husk 3.5g orange sach 30s</t>
   </si>
   <si>
     <r>
@@ -7186,11 +9128,39 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.59</t>
-    </r>
-  </si>
-  <si>
-    <t>fluclox 500mg capsules  28</t>
+      <t>2.08</t>
+    </r>
+  </si>
+  <si>
+    <t>ispaghula husk orange sachet## 48.0% 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.20</t>
+    </r>
+  </si>
+  <si>
+    <t>ispaghula husk eff sachets orange [tri] (30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2.09</t>
+    </r>
+  </si>
+  <si>
+    <t>ispaghula husk sachets orange 30</t>
   </si>
   <si>
     <r>
@@ -7200,11 +9170,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.94</t>
-    </r>
-  </si>
-  <si>
-    <t>doxycycline 100mg capsules 50</t>
+      <t>1.92</t>
+    </r>
+  </si>
+  <si>
+    <t>warfarin 5mg tablets 28</t>
   </si>
   <si>
     <r>
@@ -7214,39 +9184,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1.99</t>
-    </r>
-  </si>
-  <si>
-    <t>doxycycline 100mg capsules  50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.37</t>
-    </r>
-  </si>
-  <si>
-    <t>flucloxacillin 250mg/5ml solution 100ml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>4.31</t>
-    </r>
-  </si>
-  <si>
-    <t>fluclox 250mg s/f sol actavis * double check * sugar free  100ml</t>
+      <t>1.93</t>
+    </r>
+  </si>
+  <si>
+    <t>warfarin 5mg tablets  28</t>
   </si>
   <si>
     <r>
@@ -7256,11 +9198,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>18.50</t>
-    </r>
-  </si>
-  <si>
-    <t>metoprolol tartrate tablets 25mg 28</t>
+      <t>1.53</t>
+    </r>
+  </si>
+  <si>
+    <t>warfarin tab 5mg [tri] (28)</t>
   </si>
   <si>
     <r>
@@ -7270,516 +9212,11 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>29.24</t>
-    </r>
-  </si>
-  <si>
-    <t>metoprolol 25mg tablets  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.50</t>
-    </r>
-  </si>
-  <si>
-    <t>metoprolol 100mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>18.72</t>
-    </r>
-  </si>
-  <si>
-    <t>metoprolol 100mg tablets  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>4.64</t>
-    </r>
-  </si>
-  <si>
-    <t>ibuprofen forte 10% gel 100g</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>4.71</t>
-    </r>
-  </si>
-  <si>
-    <t>ibuprofen gel phorpain 10%  100gm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>20.98</t>
-    </r>
-  </si>
-  <si>
-    <t>prucalopride 2mg film-coated tablets 28's</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>20.12</t>
-    </r>
-  </si>
-  <si>
-    <t>prucalopride 2mg tablets  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>9.39</t>
-    </r>
-  </si>
-  <si>
-    <t>duloxetine 20mg capsules  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>8.86</t>
-    </r>
-  </si>
-  <si>
-    <t>fluoxetine 10mg capsules 30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>8.95</t>
-    </r>
-  </si>
-  <si>
-    <t>fluoxetin 10mg capsules  30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>0.90</t>
-    </r>
-  </si>
-  <si>
-    <t>ibuprofen 400mg tablets 84</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.03</t>
-    </r>
-  </si>
-  <si>
-    <t>ibuprofen 400mg tablets 'p'  84</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.15</t>
-    </r>
-  </si>
-  <si>
-    <t>quetiapine 25mg tablets 60</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>0.98</t>
-    </r>
-  </si>
-  <si>
-    <t>quetiapine 25mg tablets  60</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.40</t>
-    </r>
-  </si>
-  <si>
-    <t>quetiapine 100mg tablets 60</t>
-  </si>
-  <si>
-    <t>quetiapine 100mg tablets  60</t>
-  </si>
-  <si>
-    <t>lipitor 40mg tablets 28(uk)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.54</t>
-    </r>
-  </si>
-  <si>
-    <t>lipitor tabs 40mg u.k-# atorvastatin 93.8% pk/28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>6.28</t>
-    </r>
-  </si>
-  <si>
-    <t>cinacalcet 30mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>8.19</t>
-    </r>
-  </si>
-  <si>
-    <t>cinacalcet 30mg tablets  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.30</t>
-    </r>
-  </si>
-  <si>
-    <t>mirtazapine 15mg oral disptablets 30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.62</t>
-    </r>
-  </si>
-  <si>
-    <t>mirtazapi odisp 15mg tab #  30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.82</t>
-    </r>
-  </si>
-  <si>
-    <t>quinine sulphate 300mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.99</t>
-    </r>
-  </si>
-  <si>
-    <t>quinine sulph 300mg tabs  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.43</t>
-    </r>
-  </si>
-  <si>
-    <t>mirtazapine 45mg oral disp tabs 30s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.41</t>
-    </r>
-  </si>
-  <si>
-    <t>mirtazapine orodisp 45mg tabs#  30</t>
-  </si>
-  <si>
-    <t>paracetamol 500mg capsules 32</t>
-  </si>
-  <si>
-    <t>paracetamol 500mg capsules #  32</t>
-  </si>
-  <si>
-    <t>irbesartan 300mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>0.07</t>
-    </r>
-  </si>
-  <si>
-    <t>irbesartan 300mg tab exp 03/24 non returnable  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.09</t>
-    </r>
-  </si>
-  <si>
-    <t>montelukast 5mg chewable tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.05</t>
-    </r>
-  </si>
-  <si>
-    <t>montelukast 5mg chew tablets #  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>9.34</t>
-    </r>
-  </si>
-  <si>
-    <t>freestyle lite testing strips 50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>9.35</t>
-    </r>
-  </si>
-  <si>
-    <t>freestyle lite strips p.i-# 43.0% pk/50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>38.00</t>
-    </r>
-  </si>
-  <si>
-    <t>aripiprazole 10mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>16.59</t>
-    </r>
-  </si>
-  <si>
-    <t>aripiprazole 10mg tablets  28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>43.01</t>
-    </r>
-  </si>
-  <si>
-    <t>aripiprazole tab 10mg [tri] (28)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.87</t>
-    </r>
-  </si>
-  <si>
-    <t>ispaghula husk 3.5g orange sach 30s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2.08</t>
-    </r>
-  </si>
-  <si>
-    <t>ispaghula husk orange sachet## 48.0% 30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.92</t>
-    </r>
-  </si>
-  <si>
-    <t>warfarin 5mg tablets 28</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1.93</t>
-    </r>
-  </si>
-  <si>
-    <t>warfarin 5mg tablets  28</t>
+      <t>2.16</t>
+    </r>
+  </si>
+  <si>
+    <t>warfarin tab 5mg [aps/teva] 28</t>
   </si>
 </sst>
 </file>
@@ -8645,28 +10082,28 @@
         <v>2.0</v>
       </c>
       <c r="E25" t="s">
-        <v>1736</v>
+        <v>1776</v>
       </c>
       <c r="F25" t="s">
-        <v>1737</v>
+        <v>1777</v>
       </c>
       <c r="G25" t="s">
-        <v>1738</v>
+        <v>1712</v>
       </c>
       <c r="H25" t="s">
-        <v>1739</v>
+        <v>1778</v>
       </c>
       <c r="I25" t="s">
-        <v>1724</v>
+        <v>1752</v>
       </c>
       <c r="J25" t="s">
-        <v>1740</v>
+        <v>1779</v>
       </c>
       <c r="K25" t="s">
-        <v>1741</v>
+        <v>1780</v>
       </c>
       <c r="L25" t="s">
-        <v>1742</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="26" ht="15.75" hidden="1" customHeight="1">
@@ -9209,28 +10646,28 @@
         <v>2.0</v>
       </c>
       <c r="E70" t="s">
-        <v>1831</v>
+        <v>1943</v>
       </c>
       <c r="F70" t="s">
-        <v>1832</v>
+        <v>1944</v>
       </c>
       <c r="G70" t="s">
-        <v>1764</v>
+        <v>1823</v>
       </c>
       <c r="H70" t="s">
-        <v>1833</v>
+        <v>1945</v>
       </c>
       <c r="I70" t="s">
-        <v>1834</v>
+        <v>1946</v>
       </c>
       <c r="J70" t="s">
-        <v>1835</v>
+        <v>1947</v>
       </c>
       <c r="K70" t="s">
-        <v>1836</v>
+        <v>1948</v>
       </c>
       <c r="L70" t="s">
-        <v>1837</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="71" ht="15.75" hidden="1" customHeight="1">
@@ -9773,28 +11210,28 @@
         <v>1.0</v>
       </c>
       <c r="E115" t="s">
-        <v>1923</v>
+        <v>2114</v>
       </c>
       <c r="F115" t="s">
-        <v>1924</v>
+        <v>2115</v>
       </c>
       <c r="G115" t="s">
-        <v>1925</v>
+        <v>2116</v>
       </c>
       <c r="H115" t="s">
-        <v>1926</v>
+        <v>2117</v>
       </c>
       <c r="I115" t="s">
-        <v>1927</v>
+        <v>2118</v>
       </c>
       <c r="J115" t="s">
-        <v>1928</v>
+        <v>2119</v>
       </c>
       <c r="K115" t="s">
-        <v>1694</v>
+        <v>2120</v>
       </c>
       <c r="L115" t="s">
-        <v>1695</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="116" ht="15.75" hidden="1" customHeight="1">
@@ -10467,28 +11904,28 @@
         <v>1.0</v>
       </c>
       <c r="E172" t="s">
-        <v>1768</v>
+        <v>1835</v>
       </c>
       <c r="F172" t="s">
-        <v>1769</v>
+        <v>1836</v>
       </c>
       <c r="G172" t="s">
-        <v>1770</v>
+        <v>1837</v>
       </c>
       <c r="H172" t="s">
-        <v>1771</v>
+        <v>1838</v>
       </c>
       <c r="I172" t="s">
-        <v>1772</v>
+        <v>1839</v>
       </c>
       <c r="J172" t="s">
-        <v>1773</v>
+        <v>1840</v>
       </c>
       <c r="K172" t="s">
-        <v>1694</v>
+        <v>1841</v>
       </c>
       <c r="L172" t="s">
-        <v>1695</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="173" ht="15.75" hidden="1" customHeight="1">
@@ -10757,28 +12194,28 @@
         <v>1.0</v>
       </c>
       <c r="E195" t="s">
-        <v>1810</v>
+        <v>1912</v>
       </c>
       <c r="F195" t="s">
-        <v>1811</v>
+        <v>1913</v>
       </c>
       <c r="G195" t="s">
-        <v>1812</v>
+        <v>1914</v>
       </c>
       <c r="H195" t="s">
-        <v>1813</v>
+        <v>1915</v>
       </c>
       <c r="I195" t="s">
-        <v>1814</v>
+        <v>1916</v>
       </c>
       <c r="J195" t="s">
-        <v>1815</v>
+        <v>1917</v>
       </c>
       <c r="K195" t="s">
-        <v>1694</v>
+        <v>1918</v>
       </c>
       <c r="L195" t="s">
-        <v>1695</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
@@ -10795,28 +12232,28 @@
         <v>2.0</v>
       </c>
       <c r="E196" t="s">
-        <v>1819</v>
+        <v>1927</v>
       </c>
       <c r="F196" t="s">
-        <v>1820</v>
+        <v>1928</v>
       </c>
       <c r="G196" t="s">
-        <v>1821</v>
+        <v>1929</v>
       </c>
       <c r="H196" t="s">
-        <v>1822</v>
+        <v>1930</v>
       </c>
       <c r="I196" t="s">
-        <v>1823</v>
+        <v>1931</v>
       </c>
       <c r="J196" t="s">
-        <v>1824</v>
+        <v>1932</v>
       </c>
       <c r="K196" t="s">
-        <v>1694</v>
+        <v>1933</v>
       </c>
       <c r="L196" t="s">
-        <v>1695</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="197" ht="15.75" hidden="1" customHeight="1">
@@ -10845,28 +12282,28 @@
         <v>1.0</v>
       </c>
       <c r="E198" t="s">
-        <v>1825</v>
+        <v>1935</v>
       </c>
       <c r="F198" t="s">
-        <v>1826</v>
+        <v>1936</v>
       </c>
       <c r="G198" t="s">
-        <v>1827</v>
+        <v>1937</v>
       </c>
       <c r="H198" t="s">
-        <v>1828</v>
+        <v>1938</v>
       </c>
       <c r="I198" t="s">
-        <v>1829</v>
+        <v>1939</v>
       </c>
       <c r="J198" t="s">
-        <v>1830</v>
+        <v>1940</v>
       </c>
       <c r="K198" t="s">
-        <v>1694</v>
+        <v>1941</v>
       </c>
       <c r="L198" t="s">
-        <v>1695</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="199" ht="15.75" hidden="1" customHeight="1">
@@ -11639,28 +13076,28 @@
         <v>6.0</v>
       </c>
       <c r="E262" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="F262" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="G262" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="H262" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="I262" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="J262" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="K262" t="s">
-        <v>1694</v>
+        <v>1712</v>
       </c>
       <c r="L262" t="s">
-        <v>1695</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
@@ -11677,28 +13114,28 @@
         <v>4.0</v>
       </c>
       <c r="E263" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="F263" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="G263" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="H263" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="I263" t="s">
-        <v>1694</v>
+        <v>1718</v>
       </c>
       <c r="J263" t="s">
-        <v>1695</v>
+        <v>1719</v>
       </c>
       <c r="K263" t="s">
-        <v>1694</v>
+        <v>1720</v>
       </c>
       <c r="L263" t="s">
-        <v>1695</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
@@ -11715,28 +13152,28 @@
         <v>6.0</v>
       </c>
       <c r="E264" t="s">
-        <v>1710</v>
+        <v>1722</v>
       </c>
       <c r="F264" t="s">
-        <v>1711</v>
+        <v>1723</v>
       </c>
       <c r="G264" t="s">
-        <v>1712</v>
+        <v>1724</v>
       </c>
       <c r="H264" t="s">
-        <v>1713</v>
+        <v>1725</v>
       </c>
       <c r="I264" t="s">
-        <v>1694</v>
+        <v>1726</v>
       </c>
       <c r="J264" t="s">
-        <v>1695</v>
+        <v>1727</v>
       </c>
       <c r="K264" t="s">
-        <v>1694</v>
+        <v>1728</v>
       </c>
       <c r="L264" t="s">
-        <v>1695</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="265" ht="15.75" hidden="1" customHeight="1">
@@ -12293,28 +13730,28 @@
         <v>1.0</v>
       </c>
       <c r="E307" t="s">
-        <v>1778</v>
+        <v>1851</v>
       </c>
       <c r="F307" t="s">
-        <v>1779</v>
+        <v>1852</v>
       </c>
       <c r="G307" t="s">
-        <v>1780</v>
+        <v>1853</v>
       </c>
       <c r="H307" t="s">
-        <v>1781</v>
+        <v>1854</v>
       </c>
       <c r="I307" t="s">
-        <v>1694</v>
+        <v>1855</v>
       </c>
       <c r="J307" t="s">
-        <v>1695</v>
+        <v>1856</v>
       </c>
       <c r="K307" t="s">
-        <v>1694</v>
+        <v>1857</v>
       </c>
       <c r="L307" t="s">
-        <v>1695</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
@@ -12331,28 +13768,28 @@
         <v>393</v>
       </c>
       <c r="E308" t="s">
-        <v>1786</v>
+        <v>1867</v>
       </c>
       <c r="F308" t="s">
-        <v>1787</v>
+        <v>1868</v>
       </c>
       <c r="G308" t="s">
-        <v>1788</v>
+        <v>1869</v>
       </c>
       <c r="H308" t="s">
-        <v>1789</v>
+        <v>1870</v>
       </c>
       <c r="I308" t="s">
-        <v>1694</v>
+        <v>1869</v>
       </c>
       <c r="J308" t="s">
-        <v>1695</v>
+        <v>1871</v>
       </c>
       <c r="K308" t="s">
-        <v>1694</v>
+        <v>1872</v>
       </c>
       <c r="L308" t="s">
-        <v>1695</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
@@ -12369,28 +13806,28 @@
         <v>4.0</v>
       </c>
       <c r="E309" t="s">
-        <v>1792</v>
+        <v>1878</v>
       </c>
       <c r="F309" t="s">
-        <v>1793</v>
+        <v>1879</v>
       </c>
       <c r="G309" t="s">
-        <v>1794</v>
+        <v>1880</v>
       </c>
       <c r="H309" t="s">
-        <v>1795</v>
+        <v>1881</v>
       </c>
       <c r="I309" t="s">
-        <v>1694</v>
+        <v>1764</v>
       </c>
       <c r="J309" t="s">
-        <v>1695</v>
+        <v>1882</v>
       </c>
       <c r="K309" t="s">
-        <v>1694</v>
+        <v>1758</v>
       </c>
       <c r="L309" t="s">
-        <v>1695</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="310" ht="15.75" hidden="1" customHeight="1">
@@ -12495,28 +13932,28 @@
         <v>2.0</v>
       </c>
       <c r="E318" t="s">
-        <v>1804</v>
+        <v>1900</v>
       </c>
       <c r="F318" t="s">
-        <v>1805</v>
+        <v>1901</v>
       </c>
       <c r="G318" t="s">
-        <v>1806</v>
+        <v>1902</v>
       </c>
       <c r="H318" t="s">
-        <v>1807</v>
+        <v>1903</v>
       </c>
       <c r="I318" t="s">
-        <v>1694</v>
+        <v>1904</v>
       </c>
       <c r="J318" t="s">
-        <v>1695</v>
+        <v>1905</v>
       </c>
       <c r="K318" t="s">
-        <v>1694</v>
+        <v>1906</v>
       </c>
       <c r="L318" t="s">
-        <v>1695</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="319" ht="15.75" hidden="1" customHeight="1">
@@ -12617,28 +14054,28 @@
         <v>1.0</v>
       </c>
       <c r="E326" t="s">
-        <v>1838</v>
+        <v>1950</v>
       </c>
       <c r="F326" t="s">
-        <v>1839</v>
+        <v>1951</v>
       </c>
       <c r="G326" t="s">
-        <v>1840</v>
+        <v>1952</v>
       </c>
       <c r="H326" t="s">
-        <v>1841</v>
+        <v>1953</v>
       </c>
       <c r="I326" t="s">
-        <v>1694</v>
+        <v>1954</v>
       </c>
       <c r="J326" t="s">
-        <v>1695</v>
+        <v>1955</v>
       </c>
       <c r="K326" t="s">
-        <v>1694</v>
+        <v>1956</v>
       </c>
       <c r="L326" t="s">
-        <v>1695</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="327" ht="15.75" hidden="1" customHeight="1">
@@ -12963,28 +14400,28 @@
         <v>1.0</v>
       </c>
       <c r="E351" t="s">
-        <v>1894</v>
+        <v>2058</v>
       </c>
       <c r="F351" t="s">
-        <v>1895</v>
+        <v>2059</v>
       </c>
       <c r="G351" t="s">
-        <v>1896</v>
+        <v>2060</v>
       </c>
       <c r="H351" t="s">
-        <v>1897</v>
+        <v>2061</v>
       </c>
       <c r="I351" t="s">
-        <v>1694</v>
+        <v>2062</v>
       </c>
       <c r="J351" t="s">
-        <v>1695</v>
+        <v>2063</v>
       </c>
       <c r="K351" t="s">
-        <v>1694</v>
+        <v>2064</v>
       </c>
       <c r="L351" t="s">
-        <v>1695</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="352" ht="15.75" hidden="1" customHeight="1">
@@ -13677,28 +15114,28 @@
         <v>14.0</v>
       </c>
       <c r="E408" t="s">
-        <v>1732</v>
+        <v>1768</v>
       </c>
       <c r="F408" t="s">
-        <v>1733</v>
+        <v>1769</v>
       </c>
       <c r="G408" t="s">
-        <v>1734</v>
+        <v>1770</v>
       </c>
       <c r="H408" t="s">
-        <v>1735</v>
+        <v>1771</v>
       </c>
       <c r="I408" t="s">
-        <v>1694</v>
+        <v>1772</v>
       </c>
       <c r="J408" t="s">
-        <v>1695</v>
+        <v>1773</v>
       </c>
       <c r="K408" t="s">
-        <v>1694</v>
+        <v>1774</v>
       </c>
       <c r="L408" t="s">
-        <v>1695</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="409" ht="15.75" hidden="1" customHeight="1">
@@ -13727,28 +15164,28 @@
         <v>1.0</v>
       </c>
       <c r="E410" t="s">
-        <v>1743</v>
+        <v>1782</v>
       </c>
       <c r="F410" t="s">
-        <v>1744</v>
+        <v>1783</v>
       </c>
       <c r="G410" t="s">
-        <v>1745</v>
+        <v>1784</v>
       </c>
       <c r="H410" t="s">
-        <v>1746</v>
+        <v>1785</v>
       </c>
       <c r="I410" t="s">
-        <v>1694</v>
+        <v>1786</v>
       </c>
       <c r="J410" t="s">
-        <v>1695</v>
+        <v>1787</v>
       </c>
       <c r="K410" t="s">
-        <v>1694</v>
+        <v>1788</v>
       </c>
       <c r="L410" t="s">
-        <v>1695</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="411" ht="15.75" hidden="1" customHeight="1">
@@ -13933,28 +15370,28 @@
         <v>1.0</v>
       </c>
       <c r="E425" t="s">
-        <v>1762</v>
+        <v>1821</v>
       </c>
       <c r="F425" t="s">
-        <v>1763</v>
+        <v>1822</v>
       </c>
       <c r="G425" t="s">
-        <v>1764</v>
+        <v>1823</v>
       </c>
       <c r="H425" t="s">
-        <v>1765</v>
+        <v>1824</v>
       </c>
       <c r="I425" t="s">
-        <v>1694</v>
+        <v>1825</v>
       </c>
       <c r="J425" t="s">
-        <v>1695</v>
+        <v>1826</v>
       </c>
       <c r="K425" t="s">
-        <v>1694</v>
+        <v>1827</v>
       </c>
       <c r="L425" t="s">
-        <v>1695</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="426" ht="15.75" hidden="1" customHeight="1">
@@ -15657,28 +17094,28 @@
         <v>4.0</v>
       </c>
       <c r="E571" t="s">
-        <v>1800</v>
+        <v>1892</v>
       </c>
       <c r="F571" t="s">
-        <v>1801</v>
+        <v>1893</v>
       </c>
       <c r="G571" t="s">
-        <v>1802</v>
+        <v>1894</v>
       </c>
       <c r="H571" t="s">
-        <v>1803</v>
+        <v>1895</v>
       </c>
       <c r="I571" t="s">
-        <v>1694</v>
+        <v>1896</v>
       </c>
       <c r="J571" t="s">
-        <v>1695</v>
+        <v>1897</v>
       </c>
       <c r="K571" t="s">
-        <v>1694</v>
+        <v>1898</v>
       </c>
       <c r="L571" t="s">
-        <v>1695</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="572" ht="15.75" hidden="1" customHeight="1">
@@ -15867,28 +17304,28 @@
         <v>2.0</v>
       </c>
       <c r="E587" t="s">
-        <v>1850</v>
+        <v>1972</v>
       </c>
       <c r="F587" t="s">
-        <v>1851</v>
+        <v>1973</v>
       </c>
       <c r="G587" t="s">
-        <v>1852</v>
+        <v>1974</v>
       </c>
       <c r="H587" t="s">
-        <v>1853</v>
+        <v>1975</v>
       </c>
       <c r="I587" t="s">
-        <v>1694</v>
+        <v>1976</v>
       </c>
       <c r="J587" t="s">
-        <v>1695</v>
+        <v>1977</v>
       </c>
       <c r="K587" t="s">
-        <v>1694</v>
+        <v>1978</v>
       </c>
       <c r="L587" t="s">
-        <v>1695</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="588" ht="15.75" hidden="1" customHeight="1">
@@ -15953,28 +17390,28 @@
         <v>4.0</v>
       </c>
       <c r="E592" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="F592" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="G592" t="s">
-        <v>1874</v>
+        <v>2018</v>
       </c>
       <c r="H592" t="s">
-        <v>1875</v>
+        <v>2019</v>
       </c>
       <c r="I592" t="s">
-        <v>1694</v>
+        <v>2020</v>
       </c>
       <c r="J592" t="s">
-        <v>1695</v>
+        <v>2021</v>
       </c>
       <c r="K592" t="s">
-        <v>1694</v>
+        <v>2022</v>
       </c>
       <c r="L592" t="s">
-        <v>1695</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="593" ht="15.75" hidden="1" customHeight="1">
@@ -16588,10 +18025,10 @@
         <v>1695</v>
       </c>
       <c r="K641" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="L641" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="642" ht="15.75" hidden="1" customHeight="1">
@@ -16818,28 +18255,28 @@
         <v>3.0</v>
       </c>
       <c r="E660" t="s">
-        <v>1724</v>
+        <v>1752</v>
       </c>
       <c r="F660" t="s">
-        <v>1725</v>
+        <v>1753</v>
       </c>
       <c r="G660" t="s">
-        <v>1726</v>
+        <v>1754</v>
       </c>
       <c r="H660" t="s">
-        <v>1727</v>
+        <v>1755</v>
       </c>
       <c r="I660" t="s">
-        <v>1694</v>
+        <v>1756</v>
       </c>
       <c r="J660" t="s">
-        <v>1695</v>
+        <v>1757</v>
       </c>
       <c r="K660" t="s">
-        <v>1694</v>
+        <v>1758</v>
       </c>
       <c r="L660" t="s">
-        <v>1695</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="661" ht="15.75" customHeight="1">
@@ -16856,28 +18293,28 @@
         <v>8.0</v>
       </c>
       <c r="E661" t="s">
-        <v>1728</v>
+        <v>1760</v>
       </c>
       <c r="F661" t="s">
-        <v>1729</v>
+        <v>1761</v>
       </c>
       <c r="G661" t="s">
-        <v>1730</v>
+        <v>1762</v>
       </c>
       <c r="H661" t="s">
-        <v>1731</v>
+        <v>1763</v>
       </c>
       <c r="I661" t="s">
-        <v>1694</v>
+        <v>1764</v>
       </c>
       <c r="J661" t="s">
-        <v>1695</v>
+        <v>1765</v>
       </c>
       <c r="K661" t="s">
-        <v>1694</v>
+        <v>1766</v>
       </c>
       <c r="L661" t="s">
-        <v>1695</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="662" ht="15.75" hidden="1" customHeight="1">
@@ -17519,28 +18956,28 @@
         <v>6.0</v>
       </c>
       <c r="E714" t="s">
-        <v>1846</v>
+        <v>1964</v>
       </c>
       <c r="F714" t="s">
-        <v>1847</v>
+        <v>1965</v>
       </c>
       <c r="G714" t="s">
-        <v>1848</v>
+        <v>1966</v>
       </c>
       <c r="H714" t="s">
-        <v>1849</v>
+        <v>1967</v>
       </c>
       <c r="I714" t="s">
-        <v>1694</v>
+        <v>1968</v>
       </c>
       <c r="J714" t="s">
-        <v>1695</v>
+        <v>1969</v>
       </c>
       <c r="K714" t="s">
-        <v>1694</v>
+        <v>1970</v>
       </c>
       <c r="L714" t="s">
-        <v>1695</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="715" ht="15.75" hidden="1" customHeight="1">
@@ -17569,28 +19006,28 @@
         <v>1.0</v>
       </c>
       <c r="E716" t="s">
-        <v>1854</v>
+        <v>1980</v>
       </c>
       <c r="F716" t="s">
-        <v>1855</v>
+        <v>1981</v>
       </c>
       <c r="G716" t="s">
-        <v>1856</v>
+        <v>1982</v>
       </c>
       <c r="H716" t="s">
-        <v>1857</v>
+        <v>1983</v>
       </c>
       <c r="I716" t="s">
-        <v>1694</v>
+        <v>1859</v>
       </c>
       <c r="J716" t="s">
-        <v>1695</v>
+        <v>1984</v>
       </c>
       <c r="K716" t="s">
-        <v>1694</v>
+        <v>1985</v>
       </c>
       <c r="L716" t="s">
-        <v>1695</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="717" ht="15.75" hidden="1" customHeight="1">
@@ -17715,28 +19152,28 @@
         <v>2.0</v>
       </c>
       <c r="E726" t="s">
-        <v>1876</v>
+        <v>2024</v>
       </c>
       <c r="F726" t="s">
-        <v>1877</v>
+        <v>2025</v>
       </c>
       <c r="G726" t="s">
-        <v>1878</v>
+        <v>2026</v>
       </c>
       <c r="H726" t="s">
-        <v>1879</v>
+        <v>2027</v>
       </c>
       <c r="I726" t="s">
-        <v>1694</v>
+        <v>2028</v>
       </c>
       <c r="J726" t="s">
-        <v>1695</v>
+        <v>2029</v>
       </c>
       <c r="K726" t="s">
-        <v>1694</v>
+        <v>2030</v>
       </c>
       <c r="L726" t="s">
-        <v>1695</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="727" ht="15.75" hidden="1" customHeight="1">
@@ -18081,28 +19518,28 @@
         <v>2.0</v>
       </c>
       <c r="E755" t="s">
-        <v>1919</v>
+        <v>2106</v>
       </c>
       <c r="F755" t="s">
-        <v>1920</v>
+        <v>2107</v>
       </c>
       <c r="G755" t="s">
-        <v>1921</v>
+        <v>2108</v>
       </c>
       <c r="H755" t="s">
-        <v>1922</v>
+        <v>2109</v>
       </c>
       <c r="I755" t="s">
-        <v>1694</v>
+        <v>2110</v>
       </c>
       <c r="J755" t="s">
-        <v>1695</v>
+        <v>2111</v>
       </c>
       <c r="K755" t="s">
-        <v>1694</v>
+        <v>2112</v>
       </c>
       <c r="L755" t="s">
-        <v>1695</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="756" ht="15.75" hidden="1" customHeight="1">
@@ -18912,28 +20349,28 @@
         <v>2.0</v>
       </c>
       <c r="E821" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="F821" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="G821" t="s">
-        <v>1790</v>
+        <v>1874</v>
       </c>
       <c r="H821" t="s">
-        <v>1791</v>
+        <v>1875</v>
       </c>
       <c r="I821" t="s">
-        <v>1694</v>
+        <v>1876</v>
       </c>
       <c r="J821" t="s">
-        <v>1695</v>
+        <v>1877</v>
       </c>
       <c r="K821" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="L821" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="822" ht="15.75" hidden="1" customHeight="1">
@@ -18974,28 +20411,28 @@
         <v>2.0</v>
       </c>
       <c r="E824" t="s">
-        <v>1796</v>
+        <v>1884</v>
       </c>
       <c r="F824" t="s">
-        <v>1797</v>
+        <v>1885</v>
       </c>
       <c r="G824" t="s">
-        <v>1798</v>
+        <v>1886</v>
       </c>
       <c r="H824" t="s">
-        <v>1799</v>
+        <v>1887</v>
       </c>
       <c r="I824" t="s">
-        <v>1694</v>
+        <v>1888</v>
       </c>
       <c r="J824" t="s">
-        <v>1695</v>
+        <v>1889</v>
       </c>
       <c r="K824" t="s">
-        <v>1694</v>
+        <v>1890</v>
       </c>
       <c r="L824" t="s">
-        <v>1695</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="825" ht="15.75" hidden="1" customHeight="1">
@@ -19118,28 +20555,28 @@
         <v>1.0</v>
       </c>
       <c r="E834" t="s">
-        <v>1808</v>
+        <v>1908</v>
       </c>
       <c r="F834" t="s">
-        <v>1809</v>
+        <v>1909</v>
       </c>
       <c r="G834" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="H834" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="I834" t="s">
-        <v>1694</v>
+        <v>1910</v>
       </c>
       <c r="J834" t="s">
-        <v>1695</v>
+        <v>1911</v>
       </c>
       <c r="K834" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="L834" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="835" ht="15.75" hidden="1" customHeight="1">
@@ -19192,28 +20629,28 @@
         <v>2.0</v>
       </c>
       <c r="E838" t="s">
-        <v>1842</v>
+        <v>1958</v>
       </c>
       <c r="F838" t="s">
-        <v>1843</v>
+        <v>1959</v>
       </c>
       <c r="G838" t="s">
-        <v>1844</v>
+        <v>1960</v>
       </c>
       <c r="H838" t="s">
-        <v>1845</v>
+        <v>1961</v>
       </c>
       <c r="I838" t="s">
-        <v>1694</v>
+        <v>1962</v>
       </c>
       <c r="J838" t="s">
-        <v>1695</v>
+        <v>1963</v>
       </c>
       <c r="K838" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="L838" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="839" ht="15.75" hidden="1" customHeight="1">
@@ -19322,28 +20759,28 @@
         <v>6.0</v>
       </c>
       <c r="E847" t="s">
-        <v>1866</v>
+        <v>2003</v>
       </c>
       <c r="F847" t="s">
-        <v>1867</v>
+        <v>2004</v>
       </c>
       <c r="G847" t="s">
-        <v>1868</v>
+        <v>2005</v>
       </c>
       <c r="H847" t="s">
-        <v>1869</v>
+        <v>2006</v>
       </c>
       <c r="I847" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="J847" t="s">
-        <v>1695</v>
+        <v>2007</v>
       </c>
       <c r="K847" t="s">
-        <v>1694</v>
+        <v>2008</v>
       </c>
       <c r="L847" t="s">
-        <v>1695</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="848" ht="15.75" hidden="1" customHeight="1">
@@ -19432,28 +20869,28 @@
         <v>2.0</v>
       </c>
       <c r="E854" t="s">
-        <v>1880</v>
+        <v>2032</v>
       </c>
       <c r="F854" t="s">
-        <v>1881</v>
+        <v>2033</v>
       </c>
       <c r="G854" t="s">
-        <v>1882</v>
+        <v>1728</v>
       </c>
       <c r="H854" t="s">
-        <v>1883</v>
+        <v>2034</v>
       </c>
       <c r="I854" t="s">
-        <v>1694</v>
+        <v>2035</v>
       </c>
       <c r="J854" t="s">
-        <v>1695</v>
+        <v>2036</v>
       </c>
       <c r="K854" t="s">
-        <v>1694</v>
+        <v>2037</v>
       </c>
       <c r="L854" t="s">
-        <v>1695</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="855" ht="15.75" hidden="1" customHeight="1">
@@ -19734,28 +21171,28 @@
         <v>5.0</v>
       </c>
       <c r="E877" t="s">
-        <v>1880</v>
+        <v>2032</v>
       </c>
       <c r="F877" t="s">
-        <v>1912</v>
+        <v>2094</v>
       </c>
       <c r="G877" t="s">
-        <v>1913</v>
+        <v>2095</v>
       </c>
       <c r="H877" t="s">
-        <v>1914</v>
+        <v>2096</v>
       </c>
       <c r="I877" t="s">
-        <v>1694</v>
+        <v>1752</v>
       </c>
       <c r="J877" t="s">
-        <v>1695</v>
+        <v>2097</v>
       </c>
       <c r="K877" t="s">
-        <v>1694</v>
+        <v>2098</v>
       </c>
       <c r="L877" t="s">
-        <v>1695</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="878" ht="15.75" hidden="1" customHeight="1">
@@ -19854,28 +21291,28 @@
         <v>2.0</v>
       </c>
       <c r="E885" t="s">
-        <v>1929</v>
+        <v>2122</v>
       </c>
       <c r="F885" t="s">
-        <v>1930</v>
+        <v>2123</v>
       </c>
       <c r="G885" t="s">
-        <v>1931</v>
+        <v>2124</v>
       </c>
       <c r="H885" t="s">
-        <v>1932</v>
+        <v>2125</v>
       </c>
       <c r="I885" t="s">
-        <v>1694</v>
+        <v>2126</v>
       </c>
       <c r="J885" t="s">
-        <v>1695</v>
+        <v>2127</v>
       </c>
       <c r="K885" t="s">
-        <v>1694</v>
+        <v>2128</v>
       </c>
       <c r="L885" t="s">
-        <v>1695</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="886" ht="15.75" hidden="1" customHeight="1">
@@ -20373,28 +21810,28 @@
         <v>1.0</v>
       </c>
       <c r="E925" t="s">
-        <v>1747</v>
+        <v>1790</v>
       </c>
       <c r="F925" t="s">
-        <v>1748</v>
+        <v>1791</v>
       </c>
       <c r="G925" t="s">
-        <v>1749</v>
+        <v>1792</v>
       </c>
       <c r="H925" t="s">
-        <v>1750</v>
+        <v>1793</v>
       </c>
       <c r="I925" t="s">
-        <v>1694</v>
+        <v>1794</v>
       </c>
       <c r="J925" t="s">
-        <v>1695</v>
+        <v>1795</v>
       </c>
       <c r="K925" t="s">
-        <v>1694</v>
+        <v>1796</v>
       </c>
       <c r="L925" t="s">
-        <v>1695</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="926" ht="15.75" hidden="1" customHeight="1">
@@ -20674,28 +22111,28 @@
         <v>1.0</v>
       </c>
       <c r="E947" t="s">
-        <v>1782</v>
+        <v>1859</v>
       </c>
       <c r="F947" t="s">
-        <v>1783</v>
+        <v>1860</v>
       </c>
       <c r="G947" t="s">
-        <v>1784</v>
+        <v>1861</v>
       </c>
       <c r="H947" t="s">
-        <v>1785</v>
+        <v>1862</v>
       </c>
       <c r="I947" t="s">
-        <v>1694</v>
+        <v>1863</v>
       </c>
       <c r="J947" t="s">
-        <v>1695</v>
+        <v>1864</v>
       </c>
       <c r="K947" t="s">
-        <v>1694</v>
+        <v>1865</v>
       </c>
       <c r="L947" t="s">
-        <v>1695</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="948" ht="15.75" hidden="1" customHeight="1">
@@ -21206,28 +22643,28 @@
         <v>2.0</v>
       </c>
       <c r="E990" t="s">
-        <v>1772</v>
+        <v>1839</v>
       </c>
       <c r="F990" t="s">
-        <v>1891</v>
+        <v>2051</v>
       </c>
       <c r="G990" t="s">
-        <v>1892</v>
+        <v>2052</v>
       </c>
       <c r="H990" t="s">
-        <v>1893</v>
+        <v>2053</v>
       </c>
       <c r="I990" t="s">
-        <v>1694</v>
+        <v>2054</v>
       </c>
       <c r="J990" t="s">
-        <v>1695</v>
+        <v>2055</v>
       </c>
       <c r="K990" t="s">
-        <v>1694</v>
+        <v>2056</v>
       </c>
       <c r="L990" t="s">
-        <v>1695</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="991" ht="15.75" hidden="1" customHeight="1">
@@ -21828,28 +23265,28 @@
         <v>1.0</v>
       </c>
       <c r="E1040" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="F1040" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="G1040" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="H1040" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="I1040" t="s">
-        <v>1694</v>
+        <v>1740</v>
       </c>
       <c r="J1040" t="s">
-        <v>1695</v>
+        <v>1741</v>
       </c>
       <c r="K1040" t="s">
-        <v>1694</v>
+        <v>1742</v>
       </c>
       <c r="L1040" t="s">
-        <v>1695</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1041" ht="15.75" hidden="1" customHeight="1">
@@ -21878,28 +23315,28 @@
         <v>2.0</v>
       </c>
       <c r="E1042" t="s">
-        <v>1720</v>
+        <v>1744</v>
       </c>
       <c r="F1042" t="s">
-        <v>1721</v>
+        <v>1745</v>
       </c>
       <c r="G1042" t="s">
-        <v>1722</v>
+        <v>1746</v>
       </c>
       <c r="H1042" t="s">
-        <v>1723</v>
+        <v>1747</v>
       </c>
       <c r="I1042" t="s">
-        <v>1694</v>
+        <v>1748</v>
       </c>
       <c r="J1042" t="s">
-        <v>1695</v>
+        <v>1749</v>
       </c>
       <c r="K1042" t="s">
-        <v>1694</v>
+        <v>1750</v>
       </c>
       <c r="L1042" t="s">
-        <v>1695</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1043" ht="15.75" hidden="1" customHeight="1">
@@ -22192,28 +23629,28 @@
         <v>1.0</v>
       </c>
       <c r="E1065" t="s">
-        <v>1766</v>
+        <v>1829</v>
       </c>
       <c r="F1065" t="s">
-        <v>1767</v>
+        <v>1830</v>
       </c>
       <c r="G1065" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="H1065" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
       <c r="I1065" t="s">
-        <v>1694</v>
+        <v>1831</v>
       </c>
       <c r="J1065" t="s">
-        <v>1695</v>
+        <v>1832</v>
       </c>
       <c r="K1065" t="s">
-        <v>1694</v>
+        <v>1833</v>
       </c>
       <c r="L1065" t="s">
-        <v>1695</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1066" ht="15.75" hidden="1" customHeight="1">
@@ -22656,28 +24093,28 @@
         <v>2.0</v>
       </c>
       <c r="E1100" t="s">
-        <v>1858</v>
+        <v>1987</v>
       </c>
       <c r="F1100" t="s">
-        <v>1859</v>
+        <v>1988</v>
       </c>
       <c r="G1100" t="s">
-        <v>1860</v>
+        <v>1989</v>
       </c>
       <c r="H1100" t="s">
-        <v>1861</v>
+        <v>1990</v>
       </c>
       <c r="I1100" t="s">
-        <v>1694</v>
+        <v>1991</v>
       </c>
       <c r="J1100" t="s">
-        <v>1695</v>
+        <v>1992</v>
       </c>
       <c r="K1100" t="s">
-        <v>1694</v>
+        <v>1993</v>
       </c>
       <c r="L1100" t="s">
-        <v>1695</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1101" ht="15.75" customHeight="1">
@@ -22694,28 +24131,28 @@
         <v>1.0</v>
       </c>
       <c r="E1101" t="s">
-        <v>1862</v>
+        <v>1995</v>
       </c>
       <c r="F1101" t="s">
-        <v>1863</v>
+        <v>1996</v>
       </c>
       <c r="G1101" t="s">
-        <v>1864</v>
+        <v>1997</v>
       </c>
       <c r="H1101" t="s">
-        <v>1865</v>
+        <v>1998</v>
       </c>
       <c r="I1101" t="s">
-        <v>1694</v>
+        <v>1999</v>
       </c>
       <c r="J1101" t="s">
-        <v>1695</v>
+        <v>2000</v>
       </c>
       <c r="K1101" t="s">
-        <v>1694</v>
+        <v>2001</v>
       </c>
       <c r="L1101" t="s">
-        <v>1695</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1102" ht="15.75" hidden="1" customHeight="1">
@@ -22956,28 +24393,28 @@
         <v>1.0</v>
       </c>
       <c r="E1121" t="s">
-        <v>1898</v>
+        <v>2066</v>
       </c>
       <c r="F1121" t="s">
-        <v>1899</v>
+        <v>2067</v>
       </c>
       <c r="G1121" t="s">
-        <v>1900</v>
+        <v>2068</v>
       </c>
       <c r="H1121" t="s">
-        <v>1901</v>
+        <v>2069</v>
       </c>
       <c r="I1121" t="s">
-        <v>1694</v>
+        <v>2070</v>
       </c>
       <c r="J1121" t="s">
-        <v>1695</v>
+        <v>2071</v>
       </c>
       <c r="K1121" t="s">
-        <v>1694</v>
+        <v>2072</v>
       </c>
       <c r="L1121" t="s">
-        <v>1695</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1122" ht="15.75" hidden="1" customHeight="1">
@@ -23006,28 +24443,28 @@
         <v>2.0</v>
       </c>
       <c r="E1123" t="s">
-        <v>1906</v>
+        <v>2081</v>
       </c>
       <c r="F1123" t="s">
-        <v>1907</v>
+        <v>2082</v>
       </c>
       <c r="G1123" t="s">
-        <v>1908</v>
+        <v>2083</v>
       </c>
       <c r="H1123" t="s">
-        <v>1909</v>
+        <v>2084</v>
       </c>
       <c r="I1123" t="s">
-        <v>1694</v>
+        <v>2085</v>
       </c>
       <c r="J1123" t="s">
-        <v>1695</v>
+        <v>2086</v>
       </c>
       <c r="K1123" t="s">
-        <v>1694</v>
+        <v>2087</v>
       </c>
       <c r="L1123" t="s">
-        <v>1695</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1124" ht="15.75" hidden="1" customHeight="1">
@@ -23172,28 +24609,28 @@
         <v>2.0</v>
       </c>
       <c r="E1135" t="s">
-        <v>1915</v>
+        <v>2035</v>
       </c>
       <c r="F1135" t="s">
-        <v>1916</v>
+        <v>2100</v>
       </c>
       <c r="G1135" t="s">
-        <v>1917</v>
+        <v>2101</v>
       </c>
       <c r="H1135" t="s">
-        <v>1918</v>
+        <v>2102</v>
       </c>
       <c r="I1135" t="s">
-        <v>1694</v>
+        <v>2039</v>
       </c>
       <c r="J1135" t="s">
-        <v>1695</v>
+        <v>2103</v>
       </c>
       <c r="K1135" t="s">
-        <v>1694</v>
+        <v>2104</v>
       </c>
       <c r="L1135" t="s">
-        <v>1695</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1136" ht="15.75" hidden="1" customHeight="1">
@@ -23756,28 +25193,28 @@
         <v>1.0</v>
       </c>
       <c r="E1182" t="s">
-        <v>1751</v>
+        <v>1798</v>
       </c>
       <c r="F1182" t="s">
-        <v>1752</v>
+        <v>1799</v>
       </c>
       <c r="G1182" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="H1182" t="s">
-        <v>1754</v>
+        <v>1801</v>
       </c>
       <c r="I1182" t="s">
-        <v>1694</v>
+        <v>1802</v>
       </c>
       <c r="J1182" t="s">
-        <v>1695</v>
+        <v>1803</v>
       </c>
       <c r="K1182" t="s">
-        <v>1694</v>
+        <v>1804</v>
       </c>
       <c r="L1182" t="s">
-        <v>1695</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1183" ht="15.75" hidden="1" customHeight="1">
@@ -24020,28 +25457,28 @@
         <v>4.0</v>
       </c>
       <c r="E1202" t="s">
-        <v>1774</v>
+        <v>1843</v>
       </c>
       <c r="F1202" t="s">
-        <v>1775</v>
+        <v>1844</v>
       </c>
       <c r="G1202" t="s">
-        <v>1776</v>
+        <v>1845</v>
       </c>
       <c r="H1202" t="s">
-        <v>1777</v>
+        <v>1846</v>
       </c>
       <c r="I1202" t="s">
-        <v>1694</v>
+        <v>1847</v>
       </c>
       <c r="J1202" t="s">
-        <v>1695</v>
+        <v>1848</v>
       </c>
       <c r="K1202" t="s">
-        <v>1694</v>
+        <v>1849</v>
       </c>
       <c r="L1202" t="s">
-        <v>1695</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1203" ht="15.75" hidden="1" customHeight="1">
@@ -24250,28 +25687,28 @@
         <v>4.0</v>
       </c>
       <c r="E1219" t="s">
-        <v>1816</v>
+        <v>1920</v>
       </c>
       <c r="F1219" t="s">
-        <v>1817</v>
+        <v>1921</v>
       </c>
       <c r="G1219" t="s">
-        <v>1741</v>
+        <v>1922</v>
       </c>
       <c r="H1219" t="s">
-        <v>1818</v>
+        <v>1923</v>
       </c>
       <c r="I1219" t="s">
-        <v>1694</v>
+        <v>1924</v>
       </c>
       <c r="J1219" t="s">
-        <v>1695</v>
+        <v>1925</v>
       </c>
       <c r="K1219" t="s">
-        <v>1694</v>
+        <v>1821</v>
       </c>
       <c r="L1219" t="s">
-        <v>1695</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1220" ht="15.75" hidden="1" customHeight="1">
@@ -24758,28 +26195,28 @@
         <v>12.0</v>
       </c>
       <c r="E1260" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="F1260" t="s">
-        <v>1910</v>
+        <v>2089</v>
       </c>
       <c r="G1260" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="H1260" t="s">
-        <v>1911</v>
+        <v>2090</v>
       </c>
       <c r="I1260" t="s">
-        <v>1694</v>
+        <v>1718</v>
       </c>
       <c r="J1260" t="s">
-        <v>1695</v>
+        <v>2091</v>
       </c>
       <c r="K1260" t="s">
-        <v>1694</v>
+        <v>2092</v>
       </c>
       <c r="L1260" t="s">
-        <v>1695</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1261" ht="15.75" hidden="1" customHeight="1">
@@ -25973,28 +27410,28 @@
         <v>1.0</v>
       </c>
       <c r="E1359" t="s">
-        <v>1870</v>
+        <v>2010</v>
       </c>
       <c r="F1359" t="s">
-        <v>1871</v>
+        <v>2011</v>
       </c>
       <c r="G1359" t="s">
-        <v>1872</v>
+        <v>2012</v>
       </c>
       <c r="H1359" t="s">
-        <v>1873</v>
+        <v>2013</v>
       </c>
       <c r="I1359" t="s">
-        <v>1694</v>
+        <v>2014</v>
       </c>
       <c r="J1359" t="s">
-        <v>1695</v>
+        <v>2015</v>
       </c>
       <c r="K1359" t="s">
-        <v>1694</v>
+        <v>2016</v>
       </c>
       <c r="L1359" t="s">
-        <v>1695</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1360" ht="15.75" hidden="1" customHeight="1">
@@ -26131,28 +27568,28 @@
         <v>2.0</v>
       </c>
       <c r="E1370" t="s">
-        <v>1884</v>
+        <v>2039</v>
       </c>
       <c r="F1370" t="s">
-        <v>1885</v>
+        <v>2040</v>
       </c>
       <c r="G1370" t="s">
-        <v>1886</v>
+        <v>2041</v>
       </c>
       <c r="H1370" t="s">
-        <v>1887</v>
+        <v>2042</v>
       </c>
       <c r="I1370" t="s">
-        <v>1694</v>
+        <v>1878</v>
       </c>
       <c r="J1370" t="s">
-        <v>1695</v>
+        <v>2043</v>
       </c>
       <c r="K1370" t="s">
-        <v>1694</v>
+        <v>1964</v>
       </c>
       <c r="L1370" t="s">
-        <v>1695</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1371" ht="15.75" hidden="1" customHeight="1">
@@ -26181,28 +27618,28 @@
         <v>2.0</v>
       </c>
       <c r="E1372" t="s">
-        <v>1888</v>
+        <v>2045</v>
       </c>
       <c r="F1372" t="s">
-        <v>1889</v>
+        <v>2046</v>
       </c>
       <c r="G1372" t="s">
-        <v>1762</v>
+        <v>1821</v>
       </c>
       <c r="H1372" t="s">
-        <v>1890</v>
+        <v>2047</v>
       </c>
       <c r="I1372" t="s">
-        <v>1694</v>
+        <v>1823</v>
       </c>
       <c r="J1372" t="s">
-        <v>1695</v>
+        <v>2048</v>
       </c>
       <c r="K1372" t="s">
-        <v>1694</v>
+        <v>2049</v>
       </c>
       <c r="L1372" t="s">
-        <v>1695</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1373" ht="15.75" hidden="1" customHeight="1">
@@ -26279,28 +27716,28 @@
         <v>4.0</v>
       </c>
       <c r="E1378" t="s">
-        <v>1902</v>
+        <v>2074</v>
       </c>
       <c r="F1378" t="s">
-        <v>1903</v>
+        <v>2075</v>
       </c>
       <c r="G1378" t="s">
-        <v>1904</v>
+        <v>2076</v>
       </c>
       <c r="H1378" t="s">
-        <v>1905</v>
+        <v>2077</v>
       </c>
       <c r="I1378" t="s">
-        <v>1694</v>
+        <v>2078</v>
       </c>
       <c r="J1378" t="s">
-        <v>1695</v>
+        <v>2079</v>
       </c>
       <c r="K1378" t="s">
-        <v>1694</v>
+        <v>1931</v>
       </c>
       <c r="L1378" t="s">
-        <v>1695</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1379" ht="15.75" hidden="1" customHeight="1">
@@ -26767,28 +28204,28 @@
         <v>4.0</v>
       </c>
       <c r="E1417" t="s">
-        <v>1714</v>
+        <v>1730</v>
       </c>
       <c r="F1417" t="s">
-        <v>1715</v>
+        <v>1731</v>
       </c>
       <c r="G1417" t="s">
-        <v>1716</v>
+        <v>1732</v>
       </c>
       <c r="H1417" t="s">
-        <v>1717</v>
+        <v>1733</v>
       </c>
       <c r="I1417" t="s">
-        <v>1694</v>
+        <v>1734</v>
       </c>
       <c r="J1417" t="s">
-        <v>1695</v>
+        <v>1735</v>
       </c>
       <c r="K1417" t="s">
-        <v>1694</v>
+        <v>1736</v>
       </c>
       <c r="L1417" t="s">
-        <v>1695</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1418" ht="15.75" hidden="1" customHeight="1">
@@ -28245,28 +29682,28 @@
         <v>2.0</v>
       </c>
       <c r="E1541" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="F1541" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="G1541" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="H1541" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="I1541" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="J1541" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="K1541" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="L1541" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1542" ht="15.75" hidden="1" customHeight="1">
@@ -28595,28 +30032,28 @@
         <v>1.0</v>
       </c>
       <c r="E1568" t="s">
-        <v>1720</v>
+        <v>1744</v>
       </c>
       <c r="F1568" t="s">
-        <v>1755</v>
+        <v>1806</v>
       </c>
       <c r="G1568" t="s">
-        <v>1756</v>
+        <v>1807</v>
       </c>
       <c r="H1568" t="s">
-        <v>1757</v>
+        <v>1808</v>
       </c>
       <c r="I1568" t="s">
-        <v>1694</v>
+        <v>1809</v>
       </c>
       <c r="J1568" t="s">
-        <v>1695</v>
+        <v>1810</v>
       </c>
       <c r="K1568" t="s">
-        <v>1694</v>
+        <v>1811</v>
       </c>
       <c r="L1568" t="s">
-        <v>1695</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1569" ht="15.75" hidden="1" customHeight="1">
@@ -28703,28 +30140,28 @@
         <v>1.0</v>
       </c>
       <c r="E1575" t="s">
-        <v>1758</v>
+        <v>1813</v>
       </c>
       <c r="F1575" t="s">
-        <v>1759</v>
+        <v>1814</v>
       </c>
       <c r="G1575" t="s">
-        <v>1760</v>
+        <v>1815</v>
       </c>
       <c r="H1575" t="s">
-        <v>1761</v>
+        <v>1816</v>
       </c>
       <c r="I1575" t="s">
-        <v>1694</v>
+        <v>1817</v>
       </c>
       <c r="J1575" t="s">
-        <v>1695</v>
+        <v>1818</v>
       </c>
       <c r="K1575" t="s">
-        <v>1694</v>
+        <v>1819</v>
       </c>
       <c r="L1575" t="s">
-        <v>1695</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1576" ht="15.75" hidden="1" customHeight="1">
@@ -29783,28 +31220,28 @@
         <v>10.0</v>
       </c>
       <c r="E1664" t="s">
-        <v>1933</v>
+        <v>2130</v>
       </c>
       <c r="F1664" t="s">
-        <v>1934</v>
+        <v>2131</v>
       </c>
       <c r="G1664" t="s">
-        <v>1935</v>
+        <v>2132</v>
       </c>
       <c r="H1664" t="s">
-        <v>1936</v>
+        <v>2133</v>
       </c>
       <c r="I1664" t="s">
-        <v>1694</v>
+        <v>2134</v>
       </c>
       <c r="J1664" t="s">
-        <v>1695</v>
+        <v>2135</v>
       </c>
       <c r="K1664" t="s">
-        <v>1694</v>
+        <v>2136</v>
       </c>
       <c r="L1664" t="s">
-        <v>1695</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1665" ht="15.75" hidden="1" customHeight="1">
